--- a/biology/Zoologie/Anglaspis/Anglaspis.xlsx
+++ b/biology/Zoologie/Anglaspis/Anglaspis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anglaspis est un genre fossile d'agnathes hétérostracans cyathaspidiformes. Les fossiles se trouvent dans les strates marines d'Europe, depuis la fin du Silurien jusqu'à l'extinction du genre au début du Dévonien. Comme pour les autres cyathaspidiformes, les individus d’Anglaspis avaient des plaques dorsales et ventrales recouvrant l'avant-corps, des poches branchiales et des ouvertures nasales situées sur le toit de la cavité buccale[1].
-Les espèces d’Anglaspis du Silurien supérieur se trouvent dans les strates marines du Pays de Galles et de l'Angleterre, tandis que la plupart des espèces du Dévonien inférieur se trouvent dans les strates du Dévonien de l'île du Spitzberg, au Svalbard, en Norvège[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anglaspis est un genre fossile d'agnathes hétérostracans cyathaspidiformes. Les fossiles se trouvent dans les strates marines d'Europe, depuis la fin du Silurien jusqu'à l'extinction du genre au début du Dévonien. Comme pour les autres cyathaspidiformes, les individus d’Anglaspis avaient des plaques dorsales et ventrales recouvrant l'avant-corps, des poches branchiales et des ouvertures nasales situées sur le toit de la cavité buccale.
+Les espèces d’Anglaspis du Silurien supérieur se trouvent dans les strates marines du Pays de Galles et de l'Angleterre, tandis que la plupart des espèces du Dévonien inférieur se trouvent dans les strates du Dévonien de l'île du Spitzberg, au Svalbard, en Norvège,.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anglaspis a été, à plusieurs reprises, placé dans les familles des Cyathaspididae[4], des Poraspididae[5] et dans sa propre famille, les Anglaspidae[6]. Actuellement, il est placé parmi les Ariaspidae avec Ariaspis et Listraspis, et est considéré comme étant étroitement lié, sinon l'ancêtre de Liliaspis et Paraliliaspis[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anglaspis a été, à plusieurs reprises, placé dans les familles des Cyathaspididae, des Poraspididae et dans sa propre famille, les Anglaspidae. Actuellement, il est placé parmi les Ariaspidae avec Ariaspis et Listraspis, et est considéré comme étant étroitement lié, sinon l'ancêtre de Liliaspis et Paraliliaspis.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Anglaspis Jaekel, 1927[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Anglaspis Jaekel, 1927.
 </t>
         </is>
       </c>
